--- a/Documentation/Scénario.xlsx
+++ b/Documentation/Scénario.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inscription" sheetId="1" r:id="rId1"/>
+    <sheet name="Connexion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Cas</t>
   </si>
@@ -93,6 +95,39 @@
   </si>
   <si>
     <t>Pas d'envoi</t>
+  </si>
+  <si>
+    <t>Lancer la page login</t>
+  </si>
+  <si>
+    <t>La page login s'ouvre</t>
+  </si>
+  <si>
+    <t>Adresse associer à un compte</t>
+  </si>
+  <si>
+    <t>Adresse non associer à un compte</t>
+  </si>
+  <si>
+    <t>Afficher "L'adresse n'a pas de compte, il vous faut en créer un"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrer Mot de passe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mot de passe associer à un compte </t>
+  </si>
+  <si>
+    <t>Mot de passe non associer à un compte</t>
+  </si>
+  <si>
+    <t>Afficher "Mot de passe incorrect"</t>
+  </si>
+  <si>
+    <t>Appuyer "Incrivez vous "</t>
+  </si>
+  <si>
+    <t>Renvoi sur la page "Register"</t>
   </si>
 </sst>
 </file>
@@ -130,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -175,11 +210,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +251,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,67 +574,86 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -577,4 +661,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Scénario.xlsx
+++ b/Documentation/Scénario.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Connexion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -535,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -667,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Scénario.xlsx
+++ b/Documentation/Scénario.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
     <sheet name="Connexion" sheetId="2" r:id="rId2"/>
+    <sheet name="Modifier" sheetId="3" r:id="rId3"/>
+    <sheet name="Poster" sheetId="4" r:id="rId4"/>
+    <sheet name="Supprimer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Cas</t>
   </si>
@@ -127,6 +130,18 @@
   </si>
   <si>
     <t>Renvoi sur la page "Register"</t>
+  </si>
+  <si>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
   </si>
 </sst>
 </file>
@@ -535,7 +550,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +682,7 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -690,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -780,4 +795,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Scénario.xlsx
+++ b/Documentation/Scénario.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
     <sheet name="Connexion" sheetId="2" r:id="rId2"/>
-    <sheet name="Modifier" sheetId="3" r:id="rId3"/>
-    <sheet name="Poster" sheetId="4" r:id="rId4"/>
+    <sheet name="Poster" sheetId="4" r:id="rId3"/>
+    <sheet name="Modifier" sheetId="3" r:id="rId4"/>
     <sheet name="Supprimer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Cas</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Lancer la page annonces</t>
+  </si>
+  <si>
+    <t>La page annonces s'ouvre</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton "Poster une annonce"</t>
+  </si>
+  <si>
+    <t>Connecter à un compte</t>
+  </si>
+  <si>
+    <t>Pas connecter</t>
+  </si>
+  <si>
+    <t>Renvoie sur la page login</t>
   </si>
 </sst>
 </file>
@@ -550,7 +568,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +816,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
@@ -825,51 +914,6 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Documentation/Scénario.xlsx
+++ b/Documentation/Scénario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="11550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inscription" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Cas</t>
   </si>
@@ -160,6 +160,48 @@
   </si>
   <si>
     <t>Renvoie sur la page login</t>
+  </si>
+  <si>
+    <t>Formulaire pour les annonces qui s'affiche</t>
+  </si>
+  <si>
+    <t>Rentrer les information dans le formulaire</t>
+  </si>
+  <si>
+    <t>Toute les informations inscrite</t>
+  </si>
+  <si>
+    <t>Manques des informations</t>
+  </si>
+  <si>
+    <t>Message "Un champ n'a pas été remplit</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton poster</t>
+  </si>
+  <si>
+    <t>Sélectionner une annonces</t>
+  </si>
+  <si>
+    <t>Annonces créé avec notre compte</t>
+  </si>
+  <si>
+    <t>Annonces non créé avec notre compte</t>
+  </si>
+  <si>
+    <t>Message "cette annonces ne vous appartient pas"</t>
+  </si>
+  <si>
+    <t>Rentrer les modifications dans le formulaire</t>
+  </si>
+  <si>
+    <t>Cliquer sur poster</t>
+  </si>
+  <si>
+    <t>Cliquer sur supprimer</t>
+  </si>
+  <si>
+    <t>L'annonce est surpprimée</t>
   </si>
 </sst>
 </file>
@@ -197,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,11 +312,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +358,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,17 +893,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -846,39 +922,86 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -888,16 +1011,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -916,15 +1040,86 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -934,15 +1129,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -972,6 +1169,54 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
